--- a/Docs/ExampleData.xlsx
+++ b/Docs/ExampleData.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
-    <sheet name="Item" sheetId="2" r:id="rId2"/>
-    <sheet name="#Item" sheetId="3" r:id="rId3"/>
+    <sheet name="#Item" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -48,12 +47,12 @@
     <t>TestJsonObject</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -63,9 +62,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
@@ -96,12 +92,12 @@
     <t>测试单元格内的Json对象</t>
   </si>
   <si>
+    <t>鬼道士</t>
+  </si>
+  <si>
     <t>BS001</t>
   </si>
   <si>
-    <t>鬼道士</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -111,10 +107,10 @@
     <t>{"player":"enemy"}</t>
   </si>
   <si>
+    <t>钟馗</t>
+  </si>
+  <si>
     <t>BS002</t>
-  </si>
-  <si>
-    <t>钟馗</t>
   </si>
   <si>
     <t xml:space="preserve">     [22,33,666]</t>
@@ -1164,7 +1160,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" outlineLevelRow="6"/>
@@ -1217,31 +1213,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15.4" spans="1:10">
@@ -1263,9 +1259,7 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
         <v>14</v>
@@ -1276,42 +1270,42 @@
     </row>
     <row r="4" ht="15.4" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
+      <c r="A5" s="3">
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -1329,21 +1323,21 @@
         <v>35800</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
+      <c r="A6" s="3">
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>
@@ -1361,22 +1355,22 @@
         <v>35462</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
+      <c r="A7" s="3">
+        <v>3</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>332</v>
@@ -1391,13 +1385,13 @@
         <v>35131</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1410,85 +1404,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelRow="4" outlineLevelCol="2"/>
-  <cols>
-    <col min="3" max="3" width="12.7477477477477" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.25" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="16.25" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="16.25" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="16.25" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.25" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -1509,51 +1428,51 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/Docs/ExampleData.xlsx
+++ b/Docs/ExampleData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -101,7 +104,7 @@
     <t>hello</t>
   </si>
   <si>
-    <t>["player","enemy"]</t>
+    <t>[1,2]</t>
   </si>
   <si>
     <t>{"player":"enemy"}</t>
@@ -1160,7 +1163,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.25" outlineLevelRow="6"/>
@@ -1234,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>11</v>
@@ -1242,62 +1245,62 @@
     </row>
     <row r="3" ht="15.4" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1305,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3">
         <v>100</v>
@@ -1323,13 +1326,13 @@
         <v>35800</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1337,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>352</v>
@@ -1355,13 +1358,13 @@
         <v>35462</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1370,7 +1373,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3">
         <v>332</v>
@@ -1385,13 +1388,13 @@
         <v>35131</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1439,40 +1442,40 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.25" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
